--- a/SQL/高育森_正規化.xlsx
+++ b/SQL/高育森_正規化.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518A6C6-8034-4040-BCC2-16116C1035D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79741589-2C94-41A9-8D0C-6C75EDB150EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="原檔" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -1981,47 +1981,6 @@
     <t>S12</t>
   </si>
   <si>
-    <t>單號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>A06</t>
-  </si>
-  <si>
-    <t>A07</t>
-  </si>
-  <si>
-    <t>A08</t>
-  </si>
-  <si>
-    <t>A09</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>辦公室資訊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2042,15 +2001,152 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里所屬消防分局</t>
+    <t>nvarchar2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建築物別</t>
+  </si>
+  <si>
+    <t>消防分隊</t>
   </si>
   <si>
     <t>FK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>防空避難疏散設施</t>
+    <t>主表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarCHar2</t>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>村里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>碼</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>轄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR 8BYTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後龍鎮埔頂里中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>136-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-472735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-616072</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2058,7 +2154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2115,6 +2211,25 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2225,7 +2340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2249,24 +2364,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2298,16 +2395,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2316,7 +2440,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2635,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3051,18 +3193,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B89159D-CA20-42E9-AF17-A7F25D94E19A}">
-  <dimension ref="A4:M16"/>
+  <dimension ref="A4:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
@@ -3073,536 +3214,497 @@
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13">
-      <c r="A4" s="5" t="s">
-        <v>113</v>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.5">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.5">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.5">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31.5">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3624,54 +3726,54 @@
   <sheetData>
     <row r="1" spans="4:5" ht="17.25" thickBot="1"/>
     <row r="2" spans="4:5">
-      <c r="D2" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="D2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="14"/>
-      <c r="E3" s="23" t="s">
-        <v>127</v>
+      <c r="D3" s="8"/>
+      <c r="E3" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="4:5">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="4:5" ht="17.25" thickBot="1">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3702,144 +3804,143 @@
   <sheetData>
     <row r="1" spans="4:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="4:7">
-      <c r="D2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="4:7">
-      <c r="D3" s="14"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="15"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="4:7">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="4:7">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="4:7">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="4:7">
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="4:7">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="4:7">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="4:7">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="17.25" thickBot="1">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3872,74 +3973,73 @@
   <sheetData>
     <row r="1" spans="3:6" ht="17.25" thickBot="1"/>
     <row r="2" spans="3:6">
-      <c r="C2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="14"/>
-      <c r="D3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="8"/>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3970,200 +4070,199 @@
   <sheetData>
     <row r="2" spans="4:7" ht="17.25" thickBot="1"/>
     <row r="3" spans="4:7">
-      <c r="D3" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="4:7">
-      <c r="D4" s="14"/>
-      <c r="E4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="4:7">
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:7">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:7">
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="4:7">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:7">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="4:7">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:7">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="17.25" thickBot="1">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4178,673 +4277,715 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E41F70-4E6B-4F21-8A49-31A9E690F683}">
-  <dimension ref="A3:P29"/>
+  <dimension ref="A3:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="17.25" thickBot="1"/>
-    <row r="4" spans="1:16">
-      <c r="A4" s="11" t="s">
+    <row r="3" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="33"/>
+      <c r="B4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="J4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="25">
+        <v>100</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="25">
+        <v>3142</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1072</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="25">
+        <v>32</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="25">
+        <v>106</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="25">
+        <v>26</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2038</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="25">
+        <v>128</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="25">
+        <v>353</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="25">
+        <v>501</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="25">
+        <v>194</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="25">
+        <v>78</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B19" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="J20" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="17.25" thickBot="1"/>
+    <row r="22" spans="2:13">
+      <c r="J22" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="J23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="J24" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="J25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="J26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="27" spans="2:13">
+      <c r="J27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="J28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="J29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="J30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="J31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="17.25" thickBot="1">
+      <c r="J32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="15"/>
-      <c r="M7" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="18" t="s">
+    </row>
+    <row r="33" spans="7:13">
+      <c r="J33" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="D15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1">
-      <c r="D16" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="N16" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16">
-      <c r="D17" s="18" t="s">
+      <c r="L33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16" ht="17.25" thickBot="1">
-      <c r="D18" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16">
-      <c r="H19" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="M19" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="4:16" ht="17.25" thickBot="1">
-      <c r="H20" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="15"/>
-      <c r="M20" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="4:16">
-      <c r="H21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16" ht="17.25" thickBot="1">
-      <c r="H22" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16">
-      <c r="H23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="4:16" ht="17.25" thickBot="1">
-      <c r="H24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="4:16">
-      <c r="M25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:16">
-      <c r="M26" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="4:16">
-      <c r="M27" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="4:16">
-      <c r="M28" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="4:16" ht="17.25" thickBot="1">
-      <c r="M29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>57</v>
-      </c>
+    </row>
+    <row r="34" spans="7:13">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="7:13">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="7:13">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="7:13">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="7:13">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="7:13">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="7:13">
+      <c r="G40" s="6"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="7:13">
+      <c r="G41" s="6"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="7:13">
+      <c r="G42" s="6"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="7:13">
+      <c r="G43" s="6"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
+  <mergeCells count="4">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J4:M4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQL/高育森_正規化.xlsx
+++ b/SQL/高育森_正規化.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79741589-2C94-41A9-8D0C-6C75EDB150EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69ECC4C-9A85-4773-ABAD-143291F094AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="原檔" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="消防隊資訊" sheetId="5" r:id="rId5"/>
     <sheet name="容納設施資訊" sheetId="4" r:id="rId6"/>
     <sheet name="正規化後" sheetId="7" r:id="rId7"/>
+    <sheet name="工作表1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="134">
   <si>
     <r>
       <rPr>
@@ -2002,10 +2003,6 @@
   </si>
   <si>
     <t>nvarchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2147,6 +2144,14 @@
   </si>
   <si>
     <t>037-616072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar2 100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarCHar2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2340,7 +2345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2404,6 +2409,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2413,25 +2424,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -2439,27 +2450,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3195,7 +3185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B89159D-CA20-42E9-AF17-A7F25D94E19A}">
   <dimension ref="A4:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3726,10 +3716,10 @@
   <sheetData>
     <row r="1" spans="4:5" ht="17.25" thickBot="1"/>
     <row r="2" spans="4:5">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="4:5">
       <c r="D3" s="8"/>
@@ -3804,12 +3794,12 @@
   <sheetData>
     <row r="1" spans="4:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="4:7">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="4:7">
       <c r="D3" s="8"/>
@@ -3973,12 +3963,12 @@
   <sheetData>
     <row r="1" spans="3:6" ht="17.25" thickBot="1"/>
     <row r="2" spans="3:6">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" s="8"/>
@@ -4070,12 +4060,12 @@
   <sheetData>
     <row r="2" spans="4:7" ht="17.25" thickBot="1"/>
     <row r="3" spans="4:7">
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="4:7">
       <c r="D4" s="8"/>
@@ -4277,10 +4267,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E41F70-4E6B-4F21-8A49-31A9E690F683}">
-  <dimension ref="A3:M43"/>
+  <dimension ref="B3:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4301,73 +4291,72 @@
     <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1"/>
-    <row r="4" spans="1:13">
-      <c r="A4" s="33"/>
-      <c r="B4" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22"/>
-      <c r="J4" s="21" t="s">
+    <row r="3" spans="2:13" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:13">
+      <c r="B4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="J4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>122</v>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>114</v>
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="2:13">
       <c r="B6" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="38" t="s">
-        <v>128</v>
+      <c r="K6" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>9</v>
@@ -4376,23 +4365,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="2:13">
       <c r="B7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="26">
         <v>100</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -4411,23 +4400,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="2:13">
       <c r="B8" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="26">
         <v>3142</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="26">
         <v>1</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -4446,23 +4435,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" thickBot="1">
+    <row r="9" spans="2:13" ht="17.25" thickBot="1">
       <c r="B9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="26">
         <v>1072</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="26">
         <v>1</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -4481,131 +4470,131 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="2:13">
       <c r="B10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="26">
         <v>32</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="26">
         <v>106</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="26">
         <v>1</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" thickBot="1">
+    <row r="12" spans="2:13" ht="17.25" thickBot="1">
       <c r="B12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="26">
         <v>26</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="26">
         <v>1</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="2:13">
       <c r="B13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="26">
         <v>2038</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="26">
         <v>2</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="26">
         <v>128</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="26">
         <v>2</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -4616,52 +4605,52 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="2:13">
       <c r="B15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="26">
         <v>353</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="26">
         <v>1</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="26" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="2:13">
       <c r="B16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="26">
         <v>501</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="26">
         <v>1</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>58</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -4678,19 +4667,19 @@
       <c r="B17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>194</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="26">
         <v>1</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -4707,19 +4696,19 @@
       <c r="B18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="26">
         <v>78</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="26">
         <v>1</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -4733,26 +4722,26 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B19" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>129</v>
+      <c r="B19" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>98</v>
@@ -4762,21 +4751,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="J20" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="J20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="22" spans="2:13">
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="22"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:13">
       <c r="J23" s="8" t="s">
@@ -4786,8 +4775,8 @@
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="J24" s="37" t="s">
-        <v>127</v>
+      <c r="J24" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>2</v>
@@ -4824,7 +4813,7 @@
         <v>24</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -4849,7 +4838,7 @@
         <v>34</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>36</v>
@@ -4908,21 +4897,21 @@
         <v>65</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="7:13">
-      <c r="J33" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="K33" s="24" t="s">
+      <c r="J33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="2" t="s">
         <v>118</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="7:13">
@@ -4988,4 +4977,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE796B1-ECB8-436F-BA9F-EF68B4828782}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>